--- a/data/extracted_data/raw_round2/Plakas_2008_Fig_3.xlsx
+++ b/data/extracted_data/raw_round2/Plakas_2008_Fig_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C4A94-3561-E243-A416-3A3D17202CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{697C4A94-3561-E243-A416-3A3D17202CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46F3388-C689-874B-90E3-207E60E195D8}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="6920" windowWidth="28040" windowHeight="17440" xr2:uid="{6792C632-7CCD-2A46-BA5F-A21A86715F86}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{6792C632-7CCD-2A46-BA5F-A21A86715F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>cytotoxicity assay</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>toxticity</t>
-  </si>
-  <si>
     <t>receptor binding assay</t>
   </si>
   <si>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>LC-MS</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -113,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +153,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -259,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07BF627-C020-944C-A5C3-410D97B5432C}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1">
         <v>37972</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <v>38008</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1">
         <v>38024</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1">
         <v>38036</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" s="1">
         <v>38052</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1">
         <v>38064</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <v>38076</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1">
         <v>38092</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1">
         <v>38112</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1">
         <v>38124</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
         <v>38140</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <v>38168</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1">
         <v>38196</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>38229</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1">
         <v>38265</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1">
         <v>38293</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1">
         <v>38321</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1">
         <v>38361</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1">
         <v>38377</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B77" s="1">
         <v>38385</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <v>38393</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1">
         <v>38397</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>38405</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" s="1">
         <v>38401</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1">
         <v>38413</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" s="1">
         <v>38421</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" s="1">
         <v>38429</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1">
         <v>38433</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1">
         <v>38441</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" s="1">
         <v>38449</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1">
         <v>38453</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B89" s="1">
         <v>38461</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1">
         <v>38469</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1">
         <v>38481</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="1">
         <v>38493</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
         <v>38509</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1">
         <v>38521</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" s="1">
         <v>38521</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1">
         <v>38537</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1">
         <v>38537</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" s="1">
         <v>38553</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <v>38553</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
         <v>38565</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" s="1">
         <v>38565</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1">
         <v>38577</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>38577</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
         <v>38609</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
         <v>38629</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1">
         <v>38645</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
         <v>38657</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B108" s="1">
         <v>38673</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1">
         <v>38690</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B110" s="1">
         <v>38706</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" s="1">
         <v>38718</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1">
         <v>38734</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1">
         <v>38746</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B114" s="1">
         <v>38774</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B115" s="1">
         <v>38838</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B116" s="1">
         <v>38886</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" s="1">
         <v>38926</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B118" s="1">
         <v>37972</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B119" s="1">
         <v>38008</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1">
         <v>38020</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1">
         <v>38036</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B122" s="1">
         <v>38049</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B123" s="1">
         <v>38065</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" s="1">
         <v>38077</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B125" s="1">
         <v>38093</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B126" s="1">
         <v>38113</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B127" s="1">
         <v>38125</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B128" s="1">
         <v>38141</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B129" s="1">
         <v>38169</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B130" s="1">
         <v>38193</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B131" s="1">
         <v>38226</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B132" s="1">
         <v>38266</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B133" s="1">
         <v>38290</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B134" s="1">
         <v>38322</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B135" s="1">
         <v>38363</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B136" s="1">
         <v>38379</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B137" s="1">
         <v>38387</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B138" s="1">
         <v>38391</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B139" s="1">
         <v>38399</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B140" s="1">
         <v>38407</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B141" s="1">
         <v>38407</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B142" s="1">
         <v>38415</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B143" s="1">
         <v>38419</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1">
         <v>38427</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B145" s="1">
         <v>38435</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B146" s="1">
         <v>38443</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B147" s="1">
         <v>38451</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B148" s="1">
         <v>38451</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B149" s="1">
         <v>38463</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B150" s="1">
         <v>38467</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B151" s="1">
         <v>38479</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B152" s="1">
         <v>38495</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1">
         <v>38511</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B154" s="1">
         <v>38523</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B155" s="1">
         <v>38523</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B156" s="1">
         <v>38540</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B157" s="1">
         <v>38540</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B158" s="1">
         <v>38552</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B159" s="1">
         <v>38564</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1">
         <v>38564</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B161" s="1">
         <v>38580</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B162" s="1">
         <v>38580</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B163" s="1">
         <v>38612</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B164" s="1">
         <v>38628</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1">
         <v>38648</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B166" s="1">
         <v>38660</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B167" s="1">
         <v>38672</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B168" s="1">
         <v>38693</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B169" s="1">
         <v>38705</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B170" s="1">
         <v>38721</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B171" s="1">
         <v>38737</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B172" s="1">
         <v>38749</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B173" s="1">
         <v>38777</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B174" s="1">
         <v>38841</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B175" s="1">
         <v>38890</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B176" s="1">
         <v>38930</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B177" s="1">
         <v>37968</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B178" s="1">
         <v>38004</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B179" s="1">
         <v>38017</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B180" s="1">
         <v>38034</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B181" s="1">
         <v>38049</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B182" s="1">
         <v>38057</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B183" s="1">
         <v>38073</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B184" s="1">
         <v>38089</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1">
         <v>38109</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B186" s="1">
         <v>38121</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B187" s="1">
         <v>38137</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B188" s="1">
         <v>38165</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B189" s="1">
         <v>38194</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B190" s="1">
         <v>38226</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B191" s="1">
         <v>38262</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B192" s="1">
         <v>38290</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B193" s="1">
         <v>38318</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B194" s="1">
         <v>38363</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B195" s="1">
         <v>38375</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B196" s="1">
         <v>38384</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B197" s="1">
         <v>38388</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B198" s="1">
         <v>38396</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B199" s="1">
         <v>38405</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B200" s="1">
         <v>38405</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B201" s="1">
         <v>38414</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B202" s="1">
         <v>38421</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B203" s="1">
         <v>38425</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B204" s="1">
         <v>38432</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B205" s="1">
         <v>38440</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B206" s="1">
         <v>38444</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B207" s="1">
         <v>38456</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B208" s="1">
         <v>38460</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B209" s="1">
         <v>38468</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B210" s="1">
         <v>38480</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B211" s="1">
         <v>38492</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B212" s="1">
         <v>38510</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B213" s="1">
         <v>38527</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B214" s="1">
         <v>38523</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B215" s="1">
         <v>38538</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B216" s="1">
         <v>38538</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B217" s="1">
         <v>38555</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B218" s="1">
         <v>38554</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B219" s="1">
         <v>38565</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B220" s="1">
         <v>38565</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B221" s="1">
         <v>38577</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B222" s="1">
         <v>38577</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B223" s="1">
         <v>38609</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B224" s="1">
         <v>38629</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B225" s="1">
         <v>38645</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B226" s="1">
         <v>38657</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B227" s="1">
         <v>38673</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B228" s="1">
         <v>38689</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B229" s="1">
         <v>38705</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B230" s="1">
         <v>38717</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B231" s="1">
         <v>38733</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B232" s="1">
         <v>38745</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B233" s="1">
         <v>38773</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B234" s="1">
         <v>38838</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B235" s="1">
         <v>38890</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B236" s="1">
         <v>38926</v>
